--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>image001</t>
   </si>
@@ -111,15 +111,6 @@
   </si>
   <si>
     <t>image026</t>
-  </si>
-  <si>
-    <t>image027</t>
-  </si>
-  <si>
-    <t>image028</t>
-  </si>
-  <si>
-    <t>image029</t>
   </si>
 </sst>
 </file>
@@ -439,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +581,7 @@
         <v>2800000</v>
       </c>
       <c r="C13" s="1">
-        <v>28154</v>
+        <v>107940</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,10 +589,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>2800000</v>
+        <v>4100000</v>
       </c>
       <c r="C14" s="1">
-        <v>68418</v>
+        <v>28825</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>2800000</v>
+        <v>4100000</v>
       </c>
       <c r="C15" s="1">
-        <v>75475</v>
+        <v>29575</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,10 +611,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>2800000</v>
+        <v>4100000</v>
       </c>
       <c r="C16" s="1">
-        <v>107940</v>
+        <v>47067</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +625,7 @@
         <v>4100000</v>
       </c>
       <c r="C17" s="1">
-        <v>28825</v>
+        <v>65789</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +633,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>4100000</v>
+        <v>102000</v>
       </c>
       <c r="C18" s="1">
-        <v>29575</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +644,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>4100000</v>
+        <v>102000</v>
       </c>
       <c r="C19" s="1">
-        <v>47067</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +655,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>4100000</v>
+        <v>102000</v>
       </c>
       <c r="C20" s="1">
-        <v>65789</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,10 +666,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>102000</v>
+        <v>989000</v>
       </c>
       <c r="C21" s="1">
-        <v>2585</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,10 +677,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>102000</v>
+        <v>989000</v>
       </c>
       <c r="C22" s="1">
-        <v>3438</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,10 +688,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>102000</v>
+        <v>989000</v>
       </c>
       <c r="C23" s="1">
-        <v>3955</v>
+        <v>10571</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +702,7 @@
         <v>989000</v>
       </c>
       <c r="C24" s="1">
-        <v>7593</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,7 +713,7 @@
         <v>989000</v>
       </c>
       <c r="C25" s="1">
-        <v>8279</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,7 +724,7 @@
         <v>989000</v>
       </c>
       <c r="C26" s="1">
-        <v>10571</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,39 +735,6 @@
         <v>989000</v>
       </c>
       <c r="C27" s="1">
-        <v>5307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
-        <v>989000</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>989000</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>989000</v>
-      </c>
-      <c r="C30" s="1">
         <v>9142</v>
       </c>
     </row>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>image001</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>image026</t>
+  </si>
+  <si>
+    <t>image027</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +741,17 @@
         <v>9142</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>522000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\projeto-multimidia\projeto-multimidia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView windowWidth="10140" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>followers</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
   <si>
     <t>image001</t>
   </si>
   <si>
-    <t>imagem</t>
-  </si>
-  <si>
-    <t>followers</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
     <t>image002</t>
   </si>
   <si>
@@ -111,30 +101,398 @@
   </si>
   <si>
     <t>image026</t>
+  </si>
+  <si>
+    <t>image028</t>
+  </si>
+  <si>
+    <t>image029</t>
+  </si>
+  <si>
+    <t>image030</t>
+  </si>
+  <si>
+    <t>image031</t>
+  </si>
+  <si>
+    <t>image032</t>
+  </si>
+  <si>
+    <t>image033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,28 +500,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -172,7 +812,7 @@
   <a:themeElements>
     <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -210,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,326 +1060,395 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>334937</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>20100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>334937</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>16600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>334937</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>28300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4700000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>159332</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4700000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>159448</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>968000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>15018</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1100000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>13625</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1600000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7795</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1600000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>19516</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1600000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>29892</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1600000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>37523</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2800000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>107940</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4100000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>28825</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>4100000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>29575</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4100000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>47067</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>4100000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>65789</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>102000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>2585</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>102000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>3438</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>102000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>3955</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>989000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>7593</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>989000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>8279</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>989000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>10571</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>989000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>5307</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>989000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>6500</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>989000</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>7593</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>989000</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>9142</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>5200000</v>
+      </c>
+      <c r="C29">
+        <v>50574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>94900</v>
+      </c>
+      <c r="C30">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>94900</v>
+      </c>
+      <c r="C31">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>94900</v>
+      </c>
+      <c r="C32">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>478000</v>
+      </c>
+      <c r="C33">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>478000</v>
+      </c>
+      <c r="C34">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\projeto-multimidia\projeto-multimidia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>imagem</t>
   </si>
@@ -127,14 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,353 +148,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -503,310 +165,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -815,7 +195,7 @@
   <a:themeElements>
     <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1067,17 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5733333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1098,7 +477,7 @@
       <c r="B2" s="1">
         <v>334937</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>20100</v>
       </c>
     </row>
@@ -1109,7 +488,7 @@
       <c r="B3" s="1">
         <v>334937</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16600</v>
       </c>
     </row>
@@ -1120,7 +499,7 @@
       <c r="B4" s="1">
         <v>334937</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>28300</v>
       </c>
     </row>
@@ -1131,7 +510,7 @@
       <c r="B5" s="1">
         <v>4700000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>159332</v>
       </c>
     </row>
@@ -1142,7 +521,7 @@
       <c r="B6" s="1">
         <v>4700000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>159448</v>
       </c>
     </row>
@@ -1153,7 +532,7 @@
       <c r="B7" s="1">
         <v>968000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15018</v>
       </c>
     </row>
@@ -1164,7 +543,7 @@
       <c r="B8" s="1">
         <v>1100000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>13625</v>
       </c>
     </row>
@@ -1175,7 +554,7 @@
       <c r="B9" s="1">
         <v>1600000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7795</v>
       </c>
     </row>
@@ -1186,7 +565,7 @@
       <c r="B10" s="1">
         <v>1600000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>19516</v>
       </c>
     </row>
@@ -1197,7 +576,7 @@
       <c r="B11" s="1">
         <v>1600000</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>29892</v>
       </c>
     </row>
@@ -1208,7 +587,7 @@
       <c r="B12" s="1">
         <v>1600000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>37523</v>
       </c>
     </row>
@@ -1219,7 +598,7 @@
       <c r="B13" s="1">
         <v>2800000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>107940</v>
       </c>
     </row>
@@ -1230,7 +609,7 @@
       <c r="B14" s="1">
         <v>4100000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>28825</v>
       </c>
     </row>
@@ -1241,7 +620,7 @@
       <c r="B15" s="1">
         <v>4100000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>29575</v>
       </c>
     </row>
@@ -1252,7 +631,7 @@
       <c r="B16" s="1">
         <v>4100000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>47067</v>
       </c>
     </row>
@@ -1263,7 +642,7 @@
       <c r="B17" s="1">
         <v>4100000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>65789</v>
       </c>
     </row>
@@ -1274,7 +653,7 @@
       <c r="B18" s="1">
         <v>102000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2585</v>
       </c>
     </row>
@@ -1285,7 +664,7 @@
       <c r="B19" s="1">
         <v>102000</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>3438</v>
       </c>
     </row>
@@ -1296,7 +675,7 @@
       <c r="B20" s="1">
         <v>102000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>3955</v>
       </c>
     </row>
@@ -1307,7 +686,7 @@
       <c r="B21" s="1">
         <v>989000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>7593</v>
       </c>
     </row>
@@ -1318,7 +697,7 @@
       <c r="B22" s="1">
         <v>989000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>8279</v>
       </c>
     </row>
@@ -1329,7 +708,7 @@
       <c r="B23" s="1">
         <v>989000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>10571</v>
       </c>
     </row>
@@ -1340,7 +719,7 @@
       <c r="B24" s="1">
         <v>989000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>5307</v>
       </c>
     </row>
@@ -1351,7 +730,7 @@
       <c r="B25" s="1">
         <v>989000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>6500</v>
       </c>
     </row>
@@ -1362,7 +741,7 @@
       <c r="B26" s="1">
         <v>989000</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>7593</v>
       </c>
     </row>
@@ -1373,7 +752,7 @@
       <c r="B27" s="1">
         <v>989000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>9142</v>
       </c>
     </row>
@@ -1384,7 +763,7 @@
       <c r="B28">
         <v>522000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>7409</v>
       </c>
     </row>
@@ -1395,18 +774,18 @@
       <c r="B29">
         <v>5200000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>50574</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B30">
         <v>94900</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1048</v>
       </c>
     </row>
@@ -1414,21 +793,21 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>94900</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1289</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>94900</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1380</v>
       </c>
     </row>
@@ -1439,30 +818,29 @@
       <c r="B33">
         <v>478000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>3854</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34">
         <v>478000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>4695</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31458333333333299" footer="0.31458333333333299"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>imagem</t>
   </si>
@@ -127,18 +127,85 @@
   </si>
   <si>
     <t>image033</t>
+  </si>
+  <si>
+    <t>image034</t>
+  </si>
+  <si>
+    <t>image035</t>
+  </si>
+  <si>
+    <t>image036</t>
+  </si>
+  <si>
+    <t>image037</t>
+  </si>
+  <si>
+    <t>image038</t>
+  </si>
+  <si>
+    <t>image039</t>
+  </si>
+  <si>
+    <t>image040</t>
+  </si>
+  <si>
+    <t>image041</t>
+  </si>
+  <si>
+    <t>image042</t>
+  </si>
+  <si>
+    <t>image043</t>
+  </si>
+  <si>
+    <t>image044</t>
+  </si>
+  <si>
+    <t>image045</t>
+  </si>
+  <si>
+    <t>image046</t>
+  </si>
+  <si>
+    <t>image047</t>
+  </si>
+  <si>
+    <t>image048</t>
+  </si>
+  <si>
+    <t>image049</t>
+  </si>
+  <si>
+    <t>image050</t>
+  </si>
+  <si>
+    <t>image051</t>
+  </si>
+  <si>
+    <t>image052</t>
+  </si>
+  <si>
+    <t>image053</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,9 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G56" activeCellId="1" sqref="G46 G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -811,7 +880,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -822,7 +891,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -833,14 +902,229 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>299000</v>
+      </c>
+      <c r="C36">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>299000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>299000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>299000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>278000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>278000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>548000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>9500000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>84955</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>80976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>80889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>64743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>92551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>31836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>39115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>35115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>219000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>219000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>219000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <v>219000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2947</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31458333333333299" footer="0.31458333333333299"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>imagem</t>
   </si>
@@ -187,18 +187,178 @@
   </si>
   <si>
     <t>image053</t>
+  </si>
+  <si>
+    <t>image054</t>
+  </si>
+  <si>
+    <t>image055</t>
+  </si>
+  <si>
+    <t>image056</t>
+  </si>
+  <si>
+    <t>image057</t>
+  </si>
+  <si>
+    <t>image058</t>
+  </si>
+  <si>
+    <t>image059</t>
+  </si>
+  <si>
+    <t>image060</t>
+  </si>
+  <si>
+    <t>image061</t>
+  </si>
+  <si>
+    <t>image062</t>
+  </si>
+  <si>
+    <t>image063</t>
+  </si>
+  <si>
+    <t>image064</t>
+  </si>
+  <si>
+    <t>image065</t>
+  </si>
+  <si>
+    <t>image066</t>
+  </si>
+  <si>
+    <t>image067</t>
+  </si>
+  <si>
+    <t>image068</t>
+  </si>
+  <si>
+    <t>image069</t>
+  </si>
+  <si>
+    <t>image070</t>
+  </si>
+  <si>
+    <t>image071</t>
+  </si>
+  <si>
+    <t>image072</t>
+  </si>
+  <si>
+    <t>image073</t>
+  </si>
+  <si>
+    <t>image074</t>
+  </si>
+  <si>
+    <t>image075</t>
+  </si>
+  <si>
+    <t>image076</t>
+  </si>
+  <si>
+    <t>image077</t>
+  </si>
+  <si>
+    <t>image078</t>
+  </si>
+  <si>
+    <t>image079</t>
+  </si>
+  <si>
+    <t>image080</t>
+  </si>
+  <si>
+    <t>image081</t>
+  </si>
+  <si>
+    <t>image082</t>
+  </si>
+  <si>
+    <t>image083</t>
+  </si>
+  <si>
+    <t>image084</t>
+  </si>
+  <si>
+    <t>image085</t>
+  </si>
+  <si>
+    <t>image086</t>
+  </si>
+  <si>
+    <t>image087</t>
+  </si>
+  <si>
+    <t>image088</t>
+  </si>
+  <si>
+    <t>image089</t>
+  </si>
+  <si>
+    <t>image090</t>
+  </si>
+  <si>
+    <t>image091</t>
+  </si>
+  <si>
+    <t>image092</t>
+  </si>
+  <si>
+    <t>image093</t>
+  </si>
+  <si>
+    <t>image094</t>
+  </si>
+  <si>
+    <t>image095</t>
+  </si>
+  <si>
+    <t>image096</t>
+  </si>
+  <si>
+    <t>image097</t>
+  </si>
+  <si>
+    <t>image098</t>
+  </si>
+  <si>
+    <t>image099</t>
+  </si>
+  <si>
+    <t>image100</t>
+  </si>
+  <si>
+    <t>image101</t>
+  </si>
+  <si>
+    <t>image102</t>
+  </si>
+  <si>
+    <t>image103</t>
+  </si>
+  <si>
+    <t>image104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,11 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -517,15 +678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G56" activeCellId="1" sqref="G46 G56"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1123,6 +1285,533 @@
         <v>2947</v>
       </c>
     </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>12300000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>189791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>12300000</v>
+      </c>
+      <c r="C62">
+        <v>200114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>12300000</v>
+      </c>
+      <c r="C63">
+        <v>206024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>12300000</v>
+      </c>
+      <c r="C64">
+        <v>272092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>5300000</v>
+      </c>
+      <c r="C65">
+        <v>120885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>5300000</v>
+      </c>
+      <c r="C66">
+        <v>64801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>5300000</v>
+      </c>
+      <c r="C67">
+        <v>71249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>5300000</v>
+      </c>
+      <c r="C68">
+        <v>92571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>1600000</v>
+      </c>
+      <c r="C69">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>1600000</v>
+      </c>
+      <c r="C70">
+        <v>47578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>1600000</v>
+      </c>
+      <c r="C71">
+        <v>48065</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>1600000</v>
+      </c>
+      <c r="C72">
+        <v>38117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>1600000</v>
+      </c>
+      <c r="C73">
+        <v>31195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <v>1600000</v>
+      </c>
+      <c r="C74">
+        <v>38247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>1600000</v>
+      </c>
+      <c r="C75">
+        <v>41976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>1600000</v>
+      </c>
+      <c r="C76">
+        <v>36383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77">
+        <v>1600000</v>
+      </c>
+      <c r="C77">
+        <v>35160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <v>1600000</v>
+      </c>
+      <c r="C78">
+        <v>35111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>1600000</v>
+      </c>
+      <c r="C79">
+        <v>32511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>1600000</v>
+      </c>
+      <c r="C80">
+        <v>33630</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>1600000</v>
+      </c>
+      <c r="C81">
+        <v>30194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>1600000</v>
+      </c>
+      <c r="C82">
+        <v>41778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83">
+        <v>1600000</v>
+      </c>
+      <c r="C83">
+        <v>20574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84">
+        <v>1600000</v>
+      </c>
+      <c r="C84">
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85">
+        <v>1600000</v>
+      </c>
+      <c r="C85">
+        <v>32085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86">
+        <v>1600000</v>
+      </c>
+      <c r="C86">
+        <v>29782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>1600000</v>
+      </c>
+      <c r="C87">
+        <v>35725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>986000</v>
+      </c>
+      <c r="C88">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89">
+        <v>986000</v>
+      </c>
+      <c r="C89">
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>986000</v>
+      </c>
+      <c r="C90">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91">
+        <v>986000</v>
+      </c>
+      <c r="C91">
+        <v>13643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92">
+        <v>986000</v>
+      </c>
+      <c r="C92">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>986000</v>
+      </c>
+      <c r="C93">
+        <v>7114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94">
+        <v>986000</v>
+      </c>
+      <c r="C94">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95">
+        <v>986000</v>
+      </c>
+      <c r="C95">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96">
+        <v>986000</v>
+      </c>
+      <c r="C96">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>986000</v>
+      </c>
+      <c r="C97">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98">
+        <v>986000</v>
+      </c>
+      <c r="C98">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99">
+        <v>9500000</v>
+      </c>
+      <c r="C99">
+        <v>236150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100">
+        <v>226794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101">
+        <v>254160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102">
+        <v>251301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103">
+        <v>234379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104">
+        <v>191445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105">
+        <v>248875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106">
+        <v>288564</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>309784</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>226072</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109">
+        <v>185386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31458333333333299" footer="0.31458333333333299"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>imagem</t>
   </si>
@@ -204,15 +204,9 @@
     <t>image058</t>
   </si>
   <si>
-    <t>image059</t>
-  </si>
-  <si>
     <t>image060</t>
   </si>
   <si>
-    <t>image061</t>
-  </si>
-  <si>
     <t>image062</t>
   </si>
   <si>
@@ -340,6 +334,159 @@
   </si>
   <si>
     <t>image104</t>
+  </si>
+  <si>
+    <t>image105</t>
+  </si>
+  <si>
+    <t>image106</t>
+  </si>
+  <si>
+    <t>image107</t>
+  </si>
+  <si>
+    <t>image108</t>
+  </si>
+  <si>
+    <t>image109</t>
+  </si>
+  <si>
+    <t>image110</t>
+  </si>
+  <si>
+    <t>image111</t>
+  </si>
+  <si>
+    <t>image112</t>
+  </si>
+  <si>
+    <t>image113</t>
+  </si>
+  <si>
+    <t>image114</t>
+  </si>
+  <si>
+    <t>image115</t>
+  </si>
+  <si>
+    <t>image116</t>
+  </si>
+  <si>
+    <t>image117</t>
+  </si>
+  <si>
+    <t>image118</t>
+  </si>
+  <si>
+    <t>image119</t>
+  </si>
+  <si>
+    <t>image120</t>
+  </si>
+  <si>
+    <t>image121</t>
+  </si>
+  <si>
+    <t>image122</t>
+  </si>
+  <si>
+    <t>image123</t>
+  </si>
+  <si>
+    <t>image124</t>
+  </si>
+  <si>
+    <t>image125</t>
+  </si>
+  <si>
+    <t>image126</t>
+  </si>
+  <si>
+    <t>image127</t>
+  </si>
+  <si>
+    <t>image128</t>
+  </si>
+  <si>
+    <t>image129</t>
+  </si>
+  <si>
+    <t>image130</t>
+  </si>
+  <si>
+    <t>image131</t>
+  </si>
+  <si>
+    <t>image132</t>
+  </si>
+  <si>
+    <t>image133</t>
+  </si>
+  <si>
+    <t>image134</t>
+  </si>
+  <si>
+    <t>image135</t>
+  </si>
+  <si>
+    <t>image136</t>
+  </si>
+  <si>
+    <t>image137</t>
+  </si>
+  <si>
+    <t>image138</t>
+  </si>
+  <si>
+    <t>image139</t>
+  </si>
+  <si>
+    <t>image140</t>
+  </si>
+  <si>
+    <t>image141</t>
+  </si>
+  <si>
+    <t>image142</t>
+  </si>
+  <si>
+    <t>image143</t>
+  </si>
+  <si>
+    <t>image144</t>
+  </si>
+  <si>
+    <t>image145</t>
+  </si>
+  <si>
+    <t>image146</t>
+  </si>
+  <si>
+    <t>image147</t>
+  </si>
+  <si>
+    <t>image148</t>
+  </si>
+  <si>
+    <t>image149</t>
+  </si>
+  <si>
+    <t>image150</t>
+  </si>
+  <si>
+    <t>image151</t>
+  </si>
+  <si>
+    <t>image152</t>
+  </si>
+  <si>
+    <t>image153</t>
+  </si>
+  <si>
+    <t>image154</t>
+  </si>
+  <si>
+    <t>image155</t>
   </si>
 </sst>
 </file>
@@ -678,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1285,531 +1432,1104 @@
         <v>2947</v>
       </c>
     </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>12300000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>189791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>12300000</v>
+      </c>
+      <c r="C58">
+        <v>200114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>12300000</v>
+      </c>
+      <c r="C59">
+        <v>206024</v>
+      </c>
+    </row>
     <row r="60" spans="1:3">
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>12300000</v>
+      </c>
+      <c r="C60">
+        <v>272092</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>12300000</v>
-      </c>
-      <c r="C61" s="1">
-        <v>189791</v>
+        <v>5300000</v>
+      </c>
+      <c r="C61">
+        <v>120885</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>12300000</v>
+        <v>5300000</v>
       </c>
       <c r="C62">
-        <v>200114</v>
+        <v>71249</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>58</v>
+      <c r="A63" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>12300000</v>
+        <v>1600000</v>
       </c>
       <c r="C63">
-        <v>206024</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>12300000</v>
+        <v>1600000</v>
       </c>
       <c r="C64">
-        <v>272092</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C65">
-        <v>120885</v>
+        <v>48065</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C66">
-        <v>64801</v>
+        <v>38117</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C67">
-        <v>71249</v>
+        <v>31195</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C68">
-        <v>92571</v>
+        <v>38247</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" t="s">
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1600000</v>
       </c>
       <c r="C69">
-        <v>45357</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>1600000</v>
       </c>
       <c r="C70">
-        <v>47578</v>
+        <v>36383</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1600000</v>
       </c>
       <c r="C71">
-        <v>48065</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>1600000</v>
       </c>
       <c r="C72">
-        <v>38117</v>
+        <v>35111</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1600000</v>
       </c>
       <c r="C73">
-        <v>31195</v>
+        <v>32511</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>1600000</v>
       </c>
       <c r="C74">
-        <v>38247</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>1600000</v>
       </c>
       <c r="C75">
-        <v>41976</v>
+        <v>30194</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>1600000</v>
       </c>
       <c r="C76">
-        <v>36383</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>1600000</v>
       </c>
       <c r="C77">
-        <v>35160</v>
+        <v>20574</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>1600000</v>
       </c>
       <c r="C78">
-        <v>35111</v>
+        <v>22795</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>1600000</v>
       </c>
       <c r="C79">
-        <v>32511</v>
+        <v>32085</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>1600000</v>
       </c>
       <c r="C80">
-        <v>33630</v>
+        <v>29782</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>1600000</v>
       </c>
       <c r="C81">
-        <v>30194</v>
+        <v>35725</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C82">
-        <v>41778</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C83">
-        <v>20574</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C84">
-        <v>22795</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C85">
-        <v>32085</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C86">
-        <v>29782</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C87">
-        <v>35725</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>986000</v>
       </c>
       <c r="C88">
-        <v>8838</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>986000</v>
       </c>
       <c r="C89">
-        <v>10612</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>986000</v>
       </c>
       <c r="C90">
-        <v>5574</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>986000</v>
       </c>
       <c r="C91">
-        <v>13643</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>986000</v>
       </c>
       <c r="C92">
-        <v>7312</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C93">
-        <v>7114</v>
+        <v>236150</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C94">
-        <v>7541</v>
+        <v>226794</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C95">
-        <v>7393</v>
+        <v>254160</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C96">
-        <v>12485</v>
+        <v>251301</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C97">
-        <v>8534</v>
+        <v>234379</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C98">
-        <v>8406</v>
+        <v>191445</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>9500000</v>
       </c>
       <c r="C99">
-        <v>236150</v>
+        <v>248875</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>9500000</v>
       </c>
       <c r="C100">
-        <v>226794</v>
+        <v>288564</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>9500000</v>
       </c>
       <c r="C101">
-        <v>254160</v>
+        <v>309784</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9500000</v>
       </c>
       <c r="C102">
-        <v>251301</v>
+        <v>226072</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>9500000</v>
       </c>
       <c r="C103">
-        <v>234379</v>
+        <v>185386</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9500000</v>
       </c>
       <c r="C104">
-        <v>191445</v>
+        <v>152128</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9500000</v>
       </c>
       <c r="C105">
-        <v>248875</v>
+        <v>173961</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2800000</v>
       </c>
       <c r="C106">
-        <v>288564</v>
+        <v>106771</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2800000</v>
       </c>
       <c r="C107">
-        <v>309784</v>
+        <v>86174</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2800000</v>
       </c>
       <c r="C108">
-        <v>226072</v>
+        <v>55847</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>10100000</v>
       </c>
       <c r="C109">
-        <v>185386</v>
+        <v>201536</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10100000</v>
+      </c>
+      <c r="C110">
+        <v>169081</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C111">
+        <v>88814</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C112">
+        <v>69110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C113">
+        <v>66047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C114">
+        <v>56117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C115">
+        <v>66307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C116">
+        <v>110259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C117">
+        <v>51837</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C118">
+        <v>64764</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C119">
+        <v>55505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C120">
+        <v>55426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C121">
+        <v>61866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C122">
+        <v>51130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C123">
+        <v>60233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C124">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C125">
+        <v>33806</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C126">
+        <v>47231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C127">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C128">
+        <v>41480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C129">
+        <v>11680</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C130">
+        <v>29465</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C131">
+        <v>35686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C132">
+        <v>41751</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C133">
+        <v>32365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C134">
+        <v>35398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C135">
+        <v>27844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C136">
+        <v>26437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C137">
+        <v>19505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C138">
+        <v>39239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="C139">
+        <v>34283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="C140">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="C141">
+        <v>18808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="C142">
+        <v>14006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="C143">
+        <v>14133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="C144">
+        <v>158295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="C145">
+        <v>203225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="C146">
+        <v>145868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="C147">
+        <v>179702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C148">
+        <v>22988</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C149">
+        <v>26587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C150">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C151">
+        <v>25134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C152">
+        <v>26097</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C153">
+        <v>37264</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C154">
+        <v>47381</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C155">
+        <v>57058</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C156">
+        <v>25091</v>
       </c>
     </row>
   </sheetData>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -523,12 +523,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -543,13 +549,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1211,1324 +1220,1324 @@
         <v>4695</v>
       </c>
     </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>299000</v>
+      </c>
+      <c r="C35">
+        <v>4412</v>
+      </c>
+    </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>299000</v>
       </c>
-      <c r="C36">
-        <v>4412</v>
+      <c r="C36" s="1">
+        <v>3652</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>299000</v>
       </c>
       <c r="C37" s="1">
-        <v>3652</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>299000</v>
       </c>
       <c r="C38" s="1">
-        <v>5630</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
+      <c r="A39" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>299000</v>
+        <v>278000</v>
       </c>
       <c r="C39" s="1">
-        <v>6757</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>278000</v>
       </c>
       <c r="C40" s="1">
-        <v>2572</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>278000</v>
+        <v>548000</v>
       </c>
       <c r="C41" s="1">
-        <v>3651</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>548000</v>
+        <v>9500000</v>
       </c>
       <c r="C42" s="1">
-        <v>6219</v>
-      </c>
+        <v>84955</v>
+      </c>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>9500000</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5300000</v>
       </c>
       <c r="C43" s="1">
-        <v>84955</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>80976</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7">
         <v>5300000</v>
       </c>
-      <c r="C44" s="1">
-        <v>80976</v>
+      <c r="C44" s="7">
+        <v>80889</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>5300000</v>
       </c>
       <c r="C45" s="1">
-        <v>80889</v>
+        <v>64743</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>5300000</v>
       </c>
       <c r="C46" s="1">
-        <v>64743</v>
+        <v>92551</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C47" s="1">
-        <v>92551</v>
+        <v>31836</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>1600000</v>
       </c>
       <c r="C48" s="1">
-        <v>31836</v>
+        <v>39115</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <v>1600000</v>
       </c>
       <c r="C49" s="1">
-        <v>39115</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>1600000</v>
       </c>
       <c r="C50" s="1">
-        <v>38250</v>
+        <v>35115</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="C51" s="1">
-        <v>35115</v>
+      <c r="A51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="7">
+        <v>219000</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1733</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
         <v>219000</v>
       </c>
       <c r="C52" s="1">
-        <v>1733</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="7">
         <v>219000</v>
       </c>
-      <c r="C53" s="1">
-        <v>2752</v>
+      <c r="C53" s="7">
+        <v>2549</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
         <v>219000</v>
       </c>
       <c r="C54" s="1">
-        <v>2549</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
-        <v>219000</v>
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>12300000</v>
       </c>
       <c r="C55" s="1">
-        <v>2947</v>
+        <v>189791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>12300000</v>
+      </c>
+      <c r="C56">
+        <v>200114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>12300000</v>
       </c>
-      <c r="C57" s="1">
-        <v>189791</v>
+      <c r="C57">
+        <v>206024</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>12300000</v>
       </c>
       <c r="C58">
-        <v>200114</v>
+        <v>272092</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>12300000</v>
+        <v>5300000</v>
       </c>
       <c r="C59">
-        <v>206024</v>
+        <v>120885</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>12300000</v>
+        <v>5300000</v>
       </c>
       <c r="C60">
-        <v>272092</v>
+        <v>71249</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>60</v>
+      <c r="A61" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C61">
-        <v>120885</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>5300000</v>
+        <v>1600000</v>
       </c>
       <c r="C62">
-        <v>71249</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
       <c r="B63">
         <v>1600000</v>
       </c>
       <c r="C63">
-        <v>45357</v>
+        <v>48065</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>1600000</v>
       </c>
       <c r="C64">
-        <v>47578</v>
+        <v>38117</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1600000</v>
       </c>
       <c r="C65">
-        <v>48065</v>
+        <v>31195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>1600000</v>
       </c>
       <c r="C66">
-        <v>38117</v>
+        <v>38247</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>1600000</v>
       </c>
       <c r="C67">
-        <v>31195</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1600000</v>
       </c>
       <c r="C68">
-        <v>38247</v>
+        <v>36383</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>1600000</v>
       </c>
       <c r="C69">
-        <v>41976</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>1600000</v>
       </c>
       <c r="C70">
-        <v>36383</v>
+        <v>35111</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>1600000</v>
       </c>
       <c r="C71">
-        <v>35160</v>
+        <v>32511</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>1600000</v>
       </c>
       <c r="C72">
-        <v>35111</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>1600000</v>
       </c>
       <c r="C73">
-        <v>32511</v>
+        <v>30194</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>1600000</v>
       </c>
       <c r="C74">
-        <v>33630</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>1600000</v>
       </c>
       <c r="C75">
-        <v>30194</v>
+        <v>20574</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>1600000</v>
       </c>
       <c r="C76">
-        <v>41778</v>
+        <v>22795</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>1600000</v>
       </c>
       <c r="C77">
-        <v>20574</v>
+        <v>32085</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>1600000</v>
       </c>
       <c r="C78">
-        <v>22795</v>
+        <v>29782</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>1600000</v>
       </c>
       <c r="C79">
-        <v>32085</v>
+        <v>35725</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C80">
-        <v>29782</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>1600000</v>
+        <v>986000</v>
       </c>
       <c r="C81">
-        <v>35725</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>986000</v>
       </c>
       <c r="C82">
-        <v>8838</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>986000</v>
       </c>
       <c r="C83">
-        <v>10612</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>986000</v>
       </c>
       <c r="C84">
-        <v>5574</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>986000</v>
       </c>
       <c r="C85">
-        <v>13643</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>986000</v>
       </c>
       <c r="C86">
-        <v>7312</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>986000</v>
       </c>
       <c r="C87">
-        <v>7114</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>986000</v>
       </c>
       <c r="C88">
-        <v>7541</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>986000</v>
       </c>
       <c r="C89">
-        <v>7393</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>986000</v>
       </c>
       <c r="C90">
-        <v>12485</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C91">
-        <v>8534</v>
+        <v>236150</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>986000</v>
+        <v>9500000</v>
       </c>
       <c r="C92">
-        <v>8406</v>
+        <v>226794</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>9500000</v>
       </c>
       <c r="C93">
-        <v>236150</v>
+        <v>254160</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>9500000</v>
       </c>
       <c r="C94">
-        <v>226794</v>
+        <v>251301</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>9500000</v>
       </c>
       <c r="C95">
-        <v>254160</v>
+        <v>234379</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>9500000</v>
       </c>
       <c r="C96">
-        <v>251301</v>
+        <v>191445</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>9500000</v>
       </c>
       <c r="C97">
-        <v>234379</v>
+        <v>248875</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>9500000</v>
       </c>
       <c r="C98">
-        <v>191445</v>
+        <v>288564</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>9500000</v>
       </c>
       <c r="C99">
-        <v>248875</v>
+        <v>309784</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>9500000</v>
       </c>
       <c r="C100">
-        <v>288564</v>
+        <v>226072</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>9500000</v>
       </c>
       <c r="C101">
-        <v>309784</v>
+        <v>185386</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>9500000</v>
       </c>
       <c r="C102">
-        <v>226072</v>
+        <v>152128</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>9500000</v>
       </c>
       <c r="C103">
-        <v>185386</v>
+        <v>173961</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>9500000</v>
+        <v>105</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2800000</v>
       </c>
       <c r="C104">
-        <v>152128</v>
+        <v>106771</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>9500000</v>
+        <v>106</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2800000</v>
       </c>
       <c r="C105">
-        <v>173961</v>
+        <v>86174</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1">
         <v>2800000</v>
       </c>
       <c r="C106">
-        <v>106771</v>
+        <v>55847</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="1">
-        <v>2800000</v>
+        <v>10100000</v>
       </c>
       <c r="C107">
-        <v>86174</v>
+        <v>201536</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1">
-        <v>2800000</v>
+        <v>10100000</v>
       </c>
       <c r="C108">
-        <v>55847</v>
+        <v>169081</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1">
-        <v>10100000</v>
+        <v>3500000</v>
       </c>
       <c r="C109">
-        <v>201536</v>
+        <v>88814</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="1">
-        <v>10100000</v>
+        <v>3500000</v>
       </c>
       <c r="C110">
-        <v>169081</v>
+        <v>69110</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1">
         <v>3500000</v>
       </c>
       <c r="C111">
-        <v>88814</v>
+        <v>66047</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="1">
         <v>3500000</v>
       </c>
       <c r="C112">
-        <v>69110</v>
+        <v>56117</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="1">
         <v>3500000</v>
       </c>
       <c r="C113">
-        <v>66047</v>
+        <v>66307</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1">
         <v>3500000</v>
       </c>
       <c r="C114">
-        <v>56117</v>
+        <v>110259</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="1">
         <v>3500000</v>
       </c>
       <c r="C115">
-        <v>66307</v>
+        <v>51837</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="1">
         <v>3500000</v>
       </c>
       <c r="C116">
-        <v>110259</v>
+        <v>64764</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1">
         <v>3500000</v>
       </c>
       <c r="C117">
-        <v>51837</v>
+        <v>55505</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118" s="1">
         <v>3500000</v>
       </c>
       <c r="C118">
-        <v>64764</v>
+        <v>55426</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="1">
         <v>3500000</v>
       </c>
       <c r="C119">
-        <v>55505</v>
+        <v>61866</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1">
         <v>3500000</v>
       </c>
       <c r="C120">
-        <v>55426</v>
+        <v>51130</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="1">
         <v>3500000</v>
       </c>
       <c r="C121">
-        <v>61866</v>
+        <v>60233</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
         <v>3500000</v>
       </c>
       <c r="C122">
-        <v>51130</v>
+        <v>46266</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1">
         <v>3500000</v>
       </c>
       <c r="C123">
-        <v>60233</v>
+        <v>33806</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1">
         <v>3500000</v>
       </c>
       <c r="C124">
-        <v>46266</v>
+        <v>47231</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="1">
         <v>3500000</v>
       </c>
       <c r="C125">
-        <v>33806</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" s="1">
-        <v>3500000</v>
+        <v>2900000</v>
       </c>
       <c r="C126">
-        <v>47231</v>
+        <v>41480</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1">
-        <v>3500000</v>
+        <v>2900000</v>
       </c>
       <c r="C127">
-        <v>42868</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="1">
         <v>2900000</v>
       </c>
       <c r="C128">
-        <v>41480</v>
+        <v>29465</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1">
         <v>2900000</v>
       </c>
       <c r="C129">
-        <v>11680</v>
+        <v>35686</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1">
+      <c r="A130" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="7">
         <v>2900000</v>
       </c>
-      <c r="C130">
-        <v>29465</v>
+      <c r="C130" s="8">
+        <v>41751</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="1">
         <v>2900000</v>
       </c>
       <c r="C131">
-        <v>35686</v>
+        <v>32365</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="1">
         <v>2900000</v>
       </c>
       <c r="C132">
-        <v>41751</v>
+        <v>35398</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="1">
         <v>2900000</v>
       </c>
       <c r="C133">
-        <v>32365</v>
+        <v>27844</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="1">
         <v>2900000</v>
       </c>
       <c r="C134">
-        <v>35398</v>
+        <v>26437</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="1">
         <v>2900000</v>
       </c>
       <c r="C135">
-        <v>27844</v>
+        <v>19505</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="1">
         <v>2900000</v>
       </c>
       <c r="C136">
-        <v>26437</v>
+        <v>39239</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="1">
         <v>2900000</v>
       </c>
       <c r="C137">
-        <v>19505</v>
+        <v>34283</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1">
-        <v>2900000</v>
+        <v>2100000</v>
       </c>
       <c r="C138">
-        <v>39239</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="1">
-        <v>2900000</v>
+        <v>2100000</v>
       </c>
       <c r="C139">
-        <v>34283</v>
+        <v>18808</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="1">
         <v>2100000</v>
       </c>
       <c r="C140">
-        <v>45894</v>
+        <v>14006</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="1">
         <v>2100000</v>
       </c>
       <c r="C141">
-        <v>18808</v>
+        <v>14133</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="1">
-        <v>2100000</v>
+        <v>11400000</v>
       </c>
       <c r="C142">
-        <v>14006</v>
+        <v>158295</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1">
-        <v>2100000</v>
+        <v>11400000</v>
       </c>
       <c r="C143">
-        <v>14133</v>
+        <v>203225</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="1">
+      <c r="A144" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="7">
         <v>11400000</v>
       </c>
-      <c r="C144">
-        <v>158295</v>
+      <c r="C144" s="8">
+        <v>145868</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" s="1">
+      <c r="A145" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="7">
         <v>11400000</v>
       </c>
-      <c r="C145">
-        <v>203225</v>
+      <c r="C145" s="8">
+        <v>179702</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="1">
-        <v>11400000</v>
+        <v>1300000</v>
       </c>
       <c r="C146">
-        <v>145868</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" s="1">
-        <v>11400000</v>
+        <v>1300000</v>
       </c>
       <c r="C147">
-        <v>179702</v>
+        <v>26587</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" s="1">
         <v>1300000</v>
       </c>
       <c r="C148">
-        <v>22988</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" s="1">
         <v>1300000</v>
       </c>
       <c r="C149">
-        <v>26587</v>
+        <v>25134</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150" s="1">
         <v>1300000</v>
       </c>
       <c r="C150">
-        <v>16499</v>
+        <v>26097</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" s="1">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="C151">
-        <v>25134</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="C152">
-        <v>26097</v>
+        <v>47381</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" s="1">
         <v>1400000</v>
       </c>
       <c r="C153">
-        <v>37264</v>
+        <v>57058</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B154" s="1">
         <v>1400000</v>
       </c>
       <c r="C154">
-        <v>47381</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1400000</v>
-      </c>
-      <c r="C155">
-        <v>57058</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1400000</v>
-      </c>
-      <c r="C156">
         <v>25091</v>
       </c>
     </row>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:C145"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -858,35 +858,35 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>334937</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>20100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>334937</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>16600</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>334937</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>28300</v>
       </c>
     </row>

--- a/input-image-followers-likes.xlsx
+++ b/input-image-followers-likes.xlsx
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,16 +555,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
       <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
@@ -844,6 +854,7 @@
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -858,57 +869,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>334937</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>20100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>334937</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>16600</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>334937</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>28300</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>4700000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>159332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>4700000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>159448</v>
       </c>
     </row>
@@ -1034,35 +1045,35 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="9">
         <v>102000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="9">
         <v>2585</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>102000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
         <v>3438</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="9">
         <v>102000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
         <v>3955</v>
       </c>
     </row>
@@ -1166,84 +1177,84 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>94900</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="9">
         <v>1048</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="10">
         <v>94900</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="9">
         <v>1289</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="10">
         <v>94900</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
         <v>1380</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>478000</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="9">
         <v>3854</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>478000</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="9">
         <v>4695</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>299000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>4412</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>299000</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="9">
         <v>3652</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37">
@@ -1254,7 +1265,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38">
@@ -1265,29 +1276,29 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>278000</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="9">
         <v>2572</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>278000</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="9">
         <v>3651</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B41">
@@ -1298,7 +1309,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B42">
@@ -1307,10 +1318,10 @@
       <c r="C42" s="1">
         <v>84955</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1">
@@ -1321,18 +1332,18 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>5300000</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>80889</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1">
@@ -1343,7 +1354,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="1">
@@ -1354,7 +1365,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="1">
@@ -1365,7 +1376,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="1">
@@ -1376,7 +1387,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="1">
@@ -1387,7 +1398,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="1">
@@ -1398,46 +1409,46 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>219000</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>1733</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="9">
         <v>219000</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="9">
         <v>2752</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>219000</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>2549</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="9">
         <v>219000</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="9">
         <v>2947</v>
       </c>
     </row>
@@ -1508,7 +1519,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B61">
@@ -1838,145 +1849,145 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="8">
         <v>9500000</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="8">
         <v>236150</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="8">
         <v>9500000</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="8">
         <v>226794</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="8">
         <v>9500000</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="8">
         <v>254160</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="8">
         <v>9500000</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="8">
         <v>251301</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="A95" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="8">
         <v>9500000</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="8">
         <v>234379</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="8">
         <v>9500000</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="8">
         <v>191445</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="A97" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="8">
         <v>9500000</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="8">
         <v>248875</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="A98" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="8">
         <v>9500000</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="8">
         <v>288564</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="A99" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="8">
         <v>9500000</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="8">
         <v>309784</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="A100" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="8">
         <v>9500000</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="8">
         <v>226072</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="A101" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="8">
         <v>9500000</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="8">
         <v>185386</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="A102" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="8">
         <v>9500000</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="8">
         <v>152128</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="A103" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="8">
         <v>9500000</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="8">
         <v>173961</v>
       </c>
     </row>
@@ -2014,24 +2025,24 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="9">
         <v>10100000</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="8">
         <v>201536</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="9">
         <v>10100000</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="8">
         <v>169081</v>
       </c>
     </row>
@@ -2267,13 +2278,13 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>2900000</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="7">
         <v>41751</v>
       </c>
     </row>
@@ -2399,46 +2410,46 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="A142" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="9">
         <v>11400000</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="8">
         <v>158295</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="A143" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="9">
         <v>11400000</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="8">
         <v>203225</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>11400000</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="7">
         <v>145868</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>11400000</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="7">
         <v>179702</v>
       </c>
     </row>
